--- a/data/pyxl-B.xlsx
+++ b/data/pyxl-B.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,28 +465,6 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>24</v>
-      </c>
-      <c r="B5" t="n">
-        <v>18</v>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>34</v>
-      </c>
-      <c r="B6" t="n">
-        <v>15</v>
-      </c>
-      <c r="C6" t="n">
-        <v>67</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
